--- a/Hydrophones/Results/noise_corrected/calculations/storm4_results.xlsx
+++ b/Hydrophones/Results/noise_corrected/calculations/storm4_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Results\noise_corrected\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC360C-F446-4E28-9368-FCDA6E414E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2334C4-3118-4847-8AF5-7032F2F89C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F13D17A6-16AC-4BA4-A06E-27B077BB68FB}"/>
+    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{F13D17A6-16AC-4BA4-A06E-27B077BB68FB}"/>
   </bookViews>
   <sheets>
     <sheet name="storm4_results" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>max_amp</t>
   </si>
@@ -5546,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CB5CE4-1A66-4FD9-8B46-3E92D83C8056}">
   <dimension ref="A1:CU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38:AC38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14880,11 +14880,11 @@
         <v>mean_amp</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:B61" si="1">MAX(B3:CU3)</f>
+        <f t="shared" ref="B36:B63" si="1">MAX(B3:CU3)</f>
         <v>2.45471667611072E-2</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" ref="C36:C61" si="2">_xlfn.XLOOKUP(MAX(B3:CU3), B3:CU3, $B$1:$CU$1)</f>
+        <f t="shared" ref="C36:C63" si="2">_xlfn.XLOOKUP(MAX(B3:CU3), B3:CU3, $B$1:$CU$1)</f>
         <v>45136.65625</v>
       </c>
       <c r="E36" s="1">
@@ -15764,6 +15764,17 @@
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="1"/>
+        <v>20.131538750000001</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="2"/>
+        <v>45136.65625</v>
+      </c>
       <c r="E62" s="1">
         <v>45136.28125</v>
       </c>
@@ -15778,6 +15789,17 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="1"/>
+        <v>11.742687795237201</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="2"/>
+        <v>45136.65625</v>
+      </c>
       <c r="E63" s="1">
         <v>45136.291666666664</v>
       </c>
